--- a/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001040</t>
+          <t>519087</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华策略精选股票</t>
+          <t>新华优选分红混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>15.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005043</t>
+          <t>001040</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国寿安保健康科学混合A</t>
+          <t>新华策略精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4874</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005044</t>
+          <t>519156</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国寿安保健康科学混合C</t>
+          <t>新华行业轮换灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4795</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519087</t>
+          <t>005043</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新华优选分红混合</t>
+          <t>国寿安保健康科学混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.80</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001739</t>
+          <t>005044</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融融安二号灵活配置混合</t>
+          <t>国寿安保健康科学混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>62.36</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519156</t>
+          <t>001739</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新华行业轮换灵活配置混合A</t>
+          <t>中融融安二号灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>89.44</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.66</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,25 +824,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003291</t>
+          <t>001417</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银健康中国灵活配置混合</t>
+          <t>汇添富医疗服务灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>46.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8734</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -762,25 +862,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001040</t>
+          <t>519087</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新华策略精选股票</t>
+          <t>新华优选分红混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0367</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501007</t>
+          <t>001040</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+          <t>新华策略精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5732</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501008</t>
+          <t>003291</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+          <t>信达澳银健康中国灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001417</t>
+          <t>005043</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富医疗服务灵活配置混合</t>
+          <t>国寿安保健康科学混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.65</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519087</t>
+          <t>005044</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新华优选分红混合</t>
+          <t>国寿安保健康科学混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.32</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001739</t>
+          <t>009502</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中融融安二号灵活配置混合</t>
+          <t>国寿安保创新医药股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>40.41</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>82.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161039</t>
+          <t>501007</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国中证1000指数增强LOF</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005043</t>
+          <t>161039</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国寿安保健康科学混合A</t>
+          <t>富国中证1000指数增强LOF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>82.77</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005044</t>
+          <t>001739</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保健康科学混合C</t>
+          <t>中融融安二号灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>82.77</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>40.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009502</t>
+          <t>501008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国寿安保创新医药股票A</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>82.13</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>82.13</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>4.67</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,894 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>149.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1926</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6308</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4722</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3686</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3441</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2133</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2168,4 +2169,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6196</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7123</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0670</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9992</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4243</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3857</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3570</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3023,4 +3024,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3032,7 +3033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3043,17 +3044,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3063,14 +3084,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.49</v>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8679</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3079,14 +3122,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.62</v>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5457</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3095,14 +3160,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.94</v>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4388</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3111,13 +3198,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3621,7 +3622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3632,17 +3633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3652,14 +3673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.45</v>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6429</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3668,14 +3711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.49</v>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4139</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3684,14 +3749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.62</v>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3700,14 +3787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.94</v>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3716,13 +3825,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4172,7 +4173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4183,17 +4184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4203,14 +4224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.78</v>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5011</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4219,14 +4262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.45</v>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3402</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4235,14 +4300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.49</v>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4251,14 +4338,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.62</v>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4267,14 +4376,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.94</v>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -4283,13 +4414,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015171</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.34</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.78</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>2.45</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>8.49</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>7.62</v>
+        <v>8.49</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>3.94</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.83</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012159</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9910</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3668</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2739</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012160</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1073,7 +1412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1623,7 +1962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2211,7 +2550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3065,7 +3404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3955,7 +4294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4467,7 +4806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688139-海尔生物.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.34</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>1.78</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>2.45</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>8.49</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>7.62</v>
+        <v>8.49</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>3.94</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.83</v>
       </c>
     </row>
@@ -616,7 +633,953 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4874</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4795</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4610</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012160</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4393</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012159</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3517</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +1901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1412,7 +2375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1962,7 +2925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2550,7 +3513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3404,7 +4367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4294,7 +5257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4804,326 +5767,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519087</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>新华优选分红混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.80</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7415</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001040</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>新华策略精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4874</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519156</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>新华行业轮换灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4795</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005043</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国寿安保健康科学混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0586</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005044</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国寿安保健康科学混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0479</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001739</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中融融安二号灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>62.36</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519157</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>新华行业轮换灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>